--- a/totallyArtisticSpriteDesign.xlsx
+++ b/totallyArtisticSpriteDesign.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SoC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>black</t>
   </si>
@@ -57,12 +62,30 @@
   <si>
     <t>background</t>
   </si>
+  <si>
+    <t>UNH o deru (de)</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>land enemy (Bing Crosby)</t>
+  </si>
+  <si>
+    <t>bullet (Evin)</t>
+  </si>
+  <si>
+    <t>bullet (enemy)</t>
+  </si>
+  <si>
+    <t>flying enemy (Robert Paulson)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,8 +143,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -209,11 +238,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -267,12 +413,37 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -319,7 +490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,9 +522,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,6 +557,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,16 +733,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W100" sqref="W100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:41" ht="15.75" thickBot="1">
+    <row r="1" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>0</v>
       </c>
@@ -667,7 +840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -704,7 +877,7 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="3"/>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -741,7 +914,7 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="6"/>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -778,7 +951,7 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="6"/>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -815,7 +988,7 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="6"/>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -852,7 +1025,7 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="6"/>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -889,7 +1062,7 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="6"/>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -926,7 +1099,7 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="6"/>
     </row>
-    <row r="9" spans="1:41" ht="15.75" thickBot="1">
+    <row r="9" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -963,7 +1136,7 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="9"/>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1000,7 +1173,7 @@
       <c r="AF10" s="11"/>
       <c r="AG10" s="12"/>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1041,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1082,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1124,7 +1297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1167,7 +1340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1208,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1249,7 +1422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="15.75" thickBot="1">
+    <row r="17" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1290,7 +1463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1330,7 +1503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1367,7 +1540,7 @@
       <c r="AF19" s="5"/>
       <c r="AG19" s="6"/>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1404,7 +1577,7 @@
       <c r="AF20" s="5"/>
       <c r="AG20" s="6"/>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1441,7 +1614,7 @@
       <c r="AF21" s="5"/>
       <c r="AG21" s="6"/>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1478,7 +1651,7 @@
       <c r="AF22" s="5"/>
       <c r="AG22" s="6"/>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1515,7 +1688,7 @@
       <c r="AF23" s="5"/>
       <c r="AG23" s="6"/>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1552,7 +1725,7 @@
       <c r="AF24" s="5"/>
       <c r="AG24" s="6"/>
     </row>
-    <row r="25" spans="1:41" ht="15.75" thickBot="1">
+    <row r="25" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>7</v>
       </c>
@@ -1589,7 +1762,7 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="9"/>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1626,7 +1799,7 @@
       <c r="AF26" s="45"/>
       <c r="AG26" s="51"/>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1663,7 +1836,7 @@
       <c r="AF27" s="5"/>
       <c r="AG27" s="49"/>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1700,7 +1873,7 @@
       <c r="AF28" s="5"/>
       <c r="AG28" s="49"/>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1737,7 +1910,7 @@
       <c r="AF29" s="5"/>
       <c r="AG29" s="49"/>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1780,7 +1953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1817,7 +1990,7 @@
       <c r="AF31" s="26"/>
       <c r="AG31" s="49"/>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1854,7 +2027,7 @@
       <c r="AF32" s="26"/>
       <c r="AG32" s="49"/>
     </row>
-    <row r="33" spans="1:33" ht="15.75" thickBot="1">
+    <row r="33" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>7</v>
       </c>
@@ -1891,7 +2064,7 @@
       <c r="AF33" s="48"/>
       <c r="AG33" s="50"/>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1928,7 +2101,7 @@
       <c r="AF34" s="2"/>
       <c r="AG34" s="3"/>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1967,7 +2140,7 @@
       <c r="AF35" s="5"/>
       <c r="AG35" s="6"/>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -2005,8 +2178,18 @@
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
       <c r="AG36" s="6"/>
-    </row>
-    <row r="37" spans="1:33">
+      <c r="AK36">
+        <v>255</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
+        <f>$AK$36-AL36</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2044,8 +2227,15 @@
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
       <c r="AG37" s="6"/>
-    </row>
-    <row r="38" spans="1:33">
+      <c r="AL37">
+        <v>2</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" ref="AM37:AM43" si="0">$AK$36-AL37</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2083,8 +2273,15 @@
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
       <c r="AG38" s="6"/>
-    </row>
-    <row r="39" spans="1:33">
+      <c r="AL38">
+        <v>4</v>
+      </c>
+      <c r="AM38">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -2120,8 +2317,15 @@
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
       <c r="AG39" s="6"/>
-    </row>
-    <row r="40" spans="1:33">
+      <c r="AL39">
+        <v>8</v>
+      </c>
+      <c r="AM39">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
@@ -2157,8 +2361,15 @@
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="6"/>
-    </row>
-    <row r="41" spans="1:33" ht="15.75" thickBot="1">
+      <c r="AL40">
+        <v>16</v>
+      </c>
+      <c r="AM40">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>7</v>
       </c>
@@ -2194,8 +2405,15 @@
       <c r="AE41" s="8"/>
       <c r="AF41" s="8"/>
       <c r="AG41" s="9"/>
-    </row>
-    <row r="42" spans="1:33">
+      <c r="AL41">
+        <v>32</v>
+      </c>
+      <c r="AM41">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2207,14 +2425,14 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="3"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="54"/>
       <c r="R42" s="1"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
@@ -2231,8 +2449,15 @@
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
       <c r="AG42" s="3"/>
-    </row>
-    <row r="43" spans="1:33">
+      <c r="AL42">
+        <v>64</v>
+      </c>
+      <c r="AM42">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2244,14 +2469,14 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="6"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="6"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="23"/>
       <c r="R43" s="4"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
@@ -2268,8 +2493,15 @@
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
       <c r="AG43" s="6"/>
-    </row>
-    <row r="44" spans="1:33">
+      <c r="AL43">
+        <v>128</v>
+      </c>
+      <c r="AM43">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -2281,14 +2513,14 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="6"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="23"/>
       <c r="R44" s="4"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
@@ -2306,7 +2538,7 @@
       <c r="AF44" s="5"/>
       <c r="AG44" s="6"/>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2318,14 +2550,14 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="6"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="23"/>
       <c r="R45" s="4"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
@@ -2343,7 +2575,7 @@
       <c r="AF45" s="5"/>
       <c r="AG45" s="6"/>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -2355,14 +2587,14 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="6"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="23"/>
       <c r="R46" s="4"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
@@ -2380,7 +2612,7 @@
       <c r="AF46" s="5"/>
       <c r="AG46" s="6"/>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2392,14 +2624,14 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="6"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="6"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="23"/>
       <c r="R47" s="4"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
@@ -2417,7 +2649,7 @@
       <c r="AF47" s="5"/>
       <c r="AG47" s="6"/>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
@@ -2429,14 +2661,14 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="6"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="23"/>
       <c r="R48" s="4"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
@@ -2454,7 +2686,7 @@
       <c r="AF48" s="5"/>
       <c r="AG48" s="6"/>
     </row>
-    <row r="49" spans="1:33" ht="15.75" thickBot="1">
+    <row r="49" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>7</v>
       </c>
@@ -2466,14 +2698,14 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="9"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="56"/>
       <c r="R49" s="7"/>
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
@@ -2491,7 +2723,7 @@
       <c r="AF49" s="8"/>
       <c r="AG49" s="9"/>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -2528,7 +2760,7 @@
       <c r="AF50" s="2"/>
       <c r="AG50" s="3"/>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2555,8 +2787,8 @@
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="4"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="24"/>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
@@ -2565,7 +2797,7 @@
       <c r="AF51" s="5"/>
       <c r="AG51" s="6"/>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2592,8 +2824,8 @@
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="4"/>
+      <c r="Y52" s="23"/>
+      <c r="Z52" s="24"/>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
@@ -2602,7 +2834,7 @@
       <c r="AF52" s="5"/>
       <c r="AG52" s="6"/>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2629,8 +2861,8 @@
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="4"/>
+      <c r="Y53" s="23"/>
+      <c r="Z53" s="24"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
@@ -2639,7 +2871,7 @@
       <c r="AF53" s="5"/>
       <c r="AG53" s="6"/>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -2661,22 +2893,22 @@
       <c r="Q54" s="6"/>
       <c r="R54" s="4"/>
       <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="4"/>
+      <c r="Y54" s="23"/>
+      <c r="Z54" s="24"/>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
+      <c r="AD54" s="20"/>
+      <c r="AE54" s="20"/>
       <c r="AF54" s="5"/>
       <c r="AG54" s="6"/>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5</v>
       </c>
@@ -2698,22 +2930,22 @@
       <c r="Q55" s="6"/>
       <c r="R55" s="4"/>
       <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
-      <c r="Y55" s="6"/>
-      <c r="Z55" s="4"/>
+      <c r="Y55" s="23"/>
+      <c r="Z55" s="24"/>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
-      <c r="AD55" s="5"/>
-      <c r="AE55" s="5"/>
+      <c r="AD55" s="20"/>
+      <c r="AE55" s="20"/>
       <c r="AF55" s="5"/>
       <c r="AG55" s="6"/>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6</v>
       </c>
@@ -2735,22 +2967,22 @@
       <c r="Q56" s="6"/>
       <c r="R56" s="4"/>
       <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="4"/>
+      <c r="Y56" s="23"/>
+      <c r="Z56" s="24"/>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
-      <c r="AD56" s="5"/>
-      <c r="AE56" s="5"/>
+      <c r="AD56" s="20"/>
+      <c r="AE56" s="20"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="6"/>
     </row>
-    <row r="57" spans="1:33" ht="15.75" thickBot="1">
+    <row r="57" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>7</v>
       </c>
@@ -2772,22 +3004,22 @@
       <c r="Q57" s="9"/>
       <c r="R57" s="7"/>
       <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
       <c r="V57" s="8"/>
       <c r="W57" s="8"/>
       <c r="X57" s="8"/>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="7"/>
+      <c r="Y57" s="56"/>
+      <c r="Z57" s="55"/>
       <c r="AA57" s="8"/>
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
-      <c r="AD57" s="8"/>
-      <c r="AE57" s="8"/>
+      <c r="AD57" s="21"/>
+      <c r="AE57" s="21"/>
       <c r="AF57" s="8"/>
       <c r="AG57" s="9"/>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -2809,29 +3041,29 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="1"/>
       <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="1"/>
+      <c r="Y58" s="54"/>
+      <c r="Z58" s="53"/>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
-      <c r="AD58" s="2"/>
-      <c r="AE58" s="2"/>
+      <c r="AD58" s="22"/>
+      <c r="AE58" s="22"/>
       <c r="AF58" s="2"/>
       <c r="AG58" s="3"/>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+      <c r="E59" s="43"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -2846,30 +3078,30 @@
       <c r="Q59" s="6"/>
       <c r="R59" s="4"/>
       <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="4"/>
+      <c r="Y59" s="23"/>
+      <c r="Z59" s="24"/>
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
-      <c r="AD59" s="5"/>
-      <c r="AE59" s="5"/>
+      <c r="AD59" s="20"/>
+      <c r="AE59" s="20"/>
       <c r="AF59" s="5"/>
       <c r="AG59" s="6"/>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="43"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="6"/>
@@ -2883,31 +3115,31 @@
       <c r="Q60" s="6"/>
       <c r="R60" s="4"/>
       <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="5"/>
-      <c r="AB60" s="5"/>
-      <c r="AC60" s="5"/>
-      <c r="AD60" s="5"/>
-      <c r="AE60" s="5"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="23"/>
+      <c r="Z60" s="24"/>
+      <c r="AA60" s="20"/>
+      <c r="AB60" s="20"/>
+      <c r="AC60" s="20"/>
+      <c r="AD60" s="20"/>
+      <c r="AE60" s="20"/>
       <c r="AF60" s="5"/>
       <c r="AG60" s="6"/>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
       <c r="H61" s="5"/>
       <c r="I61" s="6"/>
       <c r="J61" s="4"/>
@@ -2920,31 +3152,31 @@
       <c r="Q61" s="6"/>
       <c r="R61" s="4"/>
       <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="4"/>
-      <c r="AA61" s="5"/>
-      <c r="AB61" s="5"/>
-      <c r="AC61" s="5"/>
-      <c r="AD61" s="5"/>
-      <c r="AE61" s="5"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="23"/>
+      <c r="Z61" s="24"/>
+      <c r="AA61" s="20"/>
+      <c r="AB61" s="20"/>
+      <c r="AC61" s="20"/>
+      <c r="AD61" s="20"/>
+      <c r="AE61" s="20"/>
       <c r="AF61" s="5"/>
       <c r="AG61" s="6"/>
     </row>
-    <row r="62" spans="1:33">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
       <c r="H62" s="5"/>
       <c r="I62" s="6"/>
       <c r="J62" s="4"/>
@@ -2962,8 +3194,8 @@
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
       <c r="X62" s="5"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="4"/>
+      <c r="Y62" s="23"/>
+      <c r="Z62" s="24"/>
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
@@ -2972,15 +3204,15 @@
       <c r="AF62" s="5"/>
       <c r="AG62" s="6"/>
     </row>
-    <row r="63" spans="1:33">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="43"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="6"/>
@@ -2999,8 +3231,8 @@
       <c r="V63" s="5"/>
       <c r="W63" s="5"/>
       <c r="X63" s="5"/>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="4"/>
+      <c r="Y63" s="23"/>
+      <c r="Z63" s="24"/>
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
@@ -3008,18 +3240,26 @@
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
       <c r="AG63" s="6"/>
-    </row>
-    <row r="64" spans="1:33">
+      <c r="AH63" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
+      <c r="E64" s="43"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
+      <c r="H64" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="I64" s="6"/>
       <c r="J64" s="4"/>
       <c r="K64" s="5"/>
@@ -3036,8 +3276,8 @@
       <c r="V64" s="5"/>
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="4"/>
+      <c r="Y64" s="23"/>
+      <c r="Z64" s="24"/>
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
@@ -3046,7 +3286,7 @@
       <c r="AF64" s="5"/>
       <c r="AG64" s="6"/>
     </row>
-    <row r="65" spans="1:33" ht="15.75" thickBot="1">
+    <row r="65" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -3073,8 +3313,8 @@
       <c r="V65" s="8"/>
       <c r="W65" s="8"/>
       <c r="X65" s="8"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="7"/>
+      <c r="Y65" s="56"/>
+      <c r="Z65" s="55"/>
       <c r="AA65" s="8"/>
       <c r="AB65" s="8"/>
       <c r="AC65" s="8"/>
@@ -3083,7 +3323,7 @@
       <c r="AF65" s="8"/>
       <c r="AG65" s="9"/>
     </row>
-    <row r="66" spans="1:33">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -3110,8 +3350,8 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="1"/>
+      <c r="Y66" s="54"/>
+      <c r="Z66" s="53"/>
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
@@ -3120,14 +3360,14 @@
       <c r="AF66" s="2"/>
       <c r="AG66" s="3"/>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
+      <c r="E67" s="14"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -3141,31 +3381,31 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="6"/>
       <c r="R67" s="4"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5"/>
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
-      <c r="Y67" s="6"/>
-      <c r="Z67" s="4"/>
+      <c r="Y67" s="23"/>
+      <c r="Z67" s="24"/>
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
-      <c r="AE67" s="5"/>
-      <c r="AF67" s="5"/>
+      <c r="AE67" s="20"/>
+      <c r="AF67" s="20"/>
       <c r="AG67" s="6"/>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="14"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="6"/>
@@ -3178,32 +3418,32 @@
       <c r="P68" s="5"/>
       <c r="Q68" s="6"/>
       <c r="R68" s="4"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
       <c r="U68" s="5"/>
       <c r="V68" s="5"/>
       <c r="W68" s="5"/>
       <c r="X68" s="5"/>
-      <c r="Y68" s="6"/>
-      <c r="Z68" s="4"/>
+      <c r="Y68" s="23"/>
+      <c r="Z68" s="24"/>
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
-      <c r="AE68" s="5"/>
-      <c r="AF68" s="5"/>
+      <c r="AE68" s="20"/>
+      <c r="AF68" s="20"/>
       <c r="AG68" s="6"/>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
       <c r="B69" s="4"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
       <c r="H69" s="5"/>
       <c r="I69" s="6"/>
       <c r="J69" s="4"/>
@@ -3215,32 +3455,32 @@
       <c r="P69" s="5"/>
       <c r="Q69" s="6"/>
       <c r="R69" s="4"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
       <c r="U69" s="5"/>
       <c r="V69" s="5"/>
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
-      <c r="Y69" s="6"/>
-      <c r="Z69" s="4"/>
+      <c r="Y69" s="23"/>
+      <c r="Z69" s="24"/>
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
-      <c r="AE69" s="5"/>
-      <c r="AF69" s="5"/>
+      <c r="AE69" s="20"/>
+      <c r="AF69" s="20"/>
       <c r="AG69" s="6"/>
     </row>
-    <row r="70" spans="1:33">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
       <c r="B70" s="4"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
       <c r="H70" s="5"/>
       <c r="I70" s="6"/>
       <c r="J70" s="4"/>
@@ -3252,31 +3492,31 @@
       <c r="P70" s="5"/>
       <c r="Q70" s="6"/>
       <c r="R70" s="4"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
       <c r="U70" s="5"/>
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
       <c r="X70" s="5"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="4"/>
+      <c r="Y70" s="23"/>
+      <c r="Z70" s="24"/>
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
-      <c r="AE70" s="5"/>
-      <c r="AF70" s="5"/>
+      <c r="AE70" s="20"/>
+      <c r="AF70" s="20"/>
       <c r="AG70" s="6"/>
     </row>
-    <row r="71" spans="1:33">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="14"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="6"/>
@@ -3289,33 +3529,35 @@
       <c r="P71" s="5"/>
       <c r="Q71" s="6"/>
       <c r="R71" s="4"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="6"/>
-      <c r="Z71" s="4"/>
-      <c r="AA71" s="5"/>
-      <c r="AB71" s="5"/>
-      <c r="AC71" s="5"/>
-      <c r="AD71" s="5"/>
-      <c r="AE71" s="5"/>
-      <c r="AF71" s="5"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="23"/>
+      <c r="Z71" s="24"/>
+      <c r="AA71" s="20"/>
+      <c r="AB71" s="20"/>
+      <c r="AC71" s="20"/>
+      <c r="AD71" s="20"/>
+      <c r="AE71" s="20"/>
+      <c r="AF71" s="20"/>
       <c r="AG71" s="6"/>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
+      <c r="E72" s="14"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
+      <c r="H72" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I72" s="6"/>
       <c r="J72" s="4"/>
       <c r="K72" s="5"/>
@@ -3326,58 +3568,1294 @@
       <c r="P72" s="5"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="4"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="4"/>
-      <c r="AA72" s="5"/>
-      <c r="AB72" s="5"/>
-      <c r="AC72" s="5"/>
-      <c r="AD72" s="5"/>
-      <c r="AE72" s="5"/>
-      <c r="AF72" s="5"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
+      <c r="U72" s="20"/>
+      <c r="V72" s="20"/>
+      <c r="W72" s="20"/>
+      <c r="X72" s="20"/>
+      <c r="Y72" s="23"/>
+      <c r="Z72" s="24"/>
+      <c r="AA72" s="20"/>
+      <c r="AB72" s="20"/>
+      <c r="AC72" s="20"/>
+      <c r="AD72" s="20"/>
+      <c r="AE72" s="20"/>
+      <c r="AF72" s="20"/>
       <c r="AG72" s="6"/>
     </row>
-    <row r="73" spans="1:33" ht="15.75" thickBot="1">
+    <row r="73" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>7</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
-      <c r="V73" s="8"/>
-      <c r="W73" s="8"/>
-      <c r="X73" s="8"/>
-      <c r="Y73" s="9"/>
-      <c r="Z73" s="7"/>
-      <c r="AA73" s="8"/>
-      <c r="AB73" s="8"/>
-      <c r="AC73" s="8"/>
-      <c r="AD73" s="8"/>
-      <c r="AE73" s="8"/>
-      <c r="AF73" s="8"/>
-      <c r="AG73" s="9"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="20"/>
+      <c r="AF73" s="20"/>
+      <c r="AG73" s="6"/>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="2"/>
+      <c r="AF74" s="2"/>
+      <c r="AG74" s="3"/>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5"/>
+      <c r="AG75" s="6"/>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="5"/>
+      <c r="AF76" s="5"/>
+      <c r="AG76" s="6"/>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="5"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="5"/>
+      <c r="AB77" s="5"/>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="5"/>
+      <c r="AF77" s="5"/>
+      <c r="AG77" s="6"/>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="5"/>
+      <c r="AG78" s="6"/>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="4"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="5"/>
+      <c r="AF79" s="5"/>
+      <c r="AG79" s="6"/>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="4"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="5"/>
+      <c r="AG80" s="6"/>
+    </row>
+    <row r="81" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>7</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="8"/>
+      <c r="X81" s="8"/>
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="7"/>
+      <c r="AA81" s="8"/>
+      <c r="AB81" s="8"/>
+      <c r="AC81" s="8"/>
+      <c r="AD81" s="8"/>
+      <c r="AE81" s="8"/>
+      <c r="AF81" s="8"/>
+      <c r="AG81" s="9"/>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
+      <c r="AD82" s="2"/>
+      <c r="AE82" s="2"/>
+      <c r="AF82" s="2"/>
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="4"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="5"/>
+      <c r="AG83" s="6"/>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="26"/>
+      <c r="S84" s="26"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="14"/>
+      <c r="V84" s="14"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="26"/>
+      <c r="Y84" s="26"/>
+      <c r="Z84" s="4"/>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="5"/>
+      <c r="AE84" s="5"/>
+      <c r="AF84" s="5"/>
+      <c r="AG84" s="6"/>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="26"/>
+      <c r="S85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T85" s="26"/>
+      <c r="U85" s="14"/>
+      <c r="V85" s="14"/>
+      <c r="W85" s="26"/>
+      <c r="X85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y85" s="26"/>
+      <c r="Z85" s="4"/>
+      <c r="AA85" s="5"/>
+      <c r="AB85" s="5"/>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="5"/>
+      <c r="AE85" s="5"/>
+      <c r="AF85" s="5"/>
+      <c r="AG85" s="6"/>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="26"/>
+      <c r="S86" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T86" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U86" s="26"/>
+      <c r="V86" s="26"/>
+      <c r="W86" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="X86" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y86" s="26"/>
+      <c r="Z86" s="4"/>
+      <c r="AA86" s="5"/>
+      <c r="AB86" s="5"/>
+      <c r="AC86" s="5"/>
+      <c r="AD86" s="5"/>
+      <c r="AE86" s="5"/>
+      <c r="AF86" s="5"/>
+      <c r="AG86" s="6"/>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="68"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="26"/>
+      <c r="S87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T87" s="26"/>
+      <c r="U87" s="14"/>
+      <c r="V87" s="14"/>
+      <c r="W87" s="26"/>
+      <c r="X87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y87" s="26"/>
+      <c r="Z87" s="4"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="5"/>
+      <c r="AE87" s="5"/>
+      <c r="AF87" s="5"/>
+      <c r="AG87" s="6"/>
+    </row>
+    <row r="88" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>6</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="26"/>
+      <c r="S88" s="26"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="14"/>
+      <c r="V88" s="14"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="26"/>
+      <c r="Y88" s="26"/>
+      <c r="Z88" s="4"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="5"/>
+      <c r="AE88" s="5"/>
+      <c r="AF88" s="5"/>
+      <c r="AG88" s="6"/>
+    </row>
+    <row r="89" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>7</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="14"/>
+      <c r="V89" s="14"/>
+      <c r="W89" s="8"/>
+      <c r="X89" s="8"/>
+      <c r="Y89" s="9"/>
+      <c r="Z89" s="7"/>
+      <c r="AA89" s="8"/>
+      <c r="AB89" s="8"/>
+      <c r="AC89" s="8"/>
+      <c r="AD89" s="8"/>
+      <c r="AE89" s="8"/>
+      <c r="AF89" s="8"/>
+      <c r="AG89" s="9"/>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="20"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="14"/>
+      <c r="V90" s="14"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="20"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
+      <c r="AD90" s="2"/>
+      <c r="AE90" s="2"/>
+      <c r="AF90" s="2"/>
+      <c r="AG90" s="3"/>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="20"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="20"/>
+      <c r="T91" s="20"/>
+      <c r="U91" s="20"/>
+      <c r="V91" s="20"/>
+      <c r="W91" s="20"/>
+      <c r="X91" s="20"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="4"/>
+      <c r="AA91" s="5"/>
+      <c r="AB91" s="5"/>
+      <c r="AC91" s="5"/>
+      <c r="AD91" s="5"/>
+      <c r="AE91" s="5"/>
+      <c r="AF91" s="5"/>
+      <c r="AG91" s="6"/>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="20"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="20"/>
+      <c r="V92" s="20"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="5"/>
+      <c r="AC92" s="5"/>
+      <c r="AD92" s="5"/>
+      <c r="AE92" s="5"/>
+      <c r="AF92" s="5"/>
+      <c r="AG92" s="6"/>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="20"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="20"/>
+      <c r="V93" s="20"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="6"/>
+      <c r="Z93" s="4"/>
+      <c r="AA93" s="5"/>
+      <c r="AB93" s="5"/>
+      <c r="AC93" s="5"/>
+      <c r="AD93" s="5"/>
+      <c r="AE93" s="5"/>
+      <c r="AF93" s="5"/>
+      <c r="AG93" s="6"/>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="20"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="20"/>
+      <c r="V94" s="20"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="4"/>
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="5"/>
+      <c r="AE94" s="5"/>
+      <c r="AF94" s="5"/>
+      <c r="AG94" s="6"/>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>5</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="20"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="30"/>
+      <c r="T95" s="30"/>
+      <c r="U95" s="30"/>
+      <c r="V95" s="30"/>
+      <c r="W95" s="30"/>
+      <c r="X95" s="30"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="4"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="5"/>
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="5"/>
+      <c r="AE95" s="5"/>
+      <c r="AF95" s="5"/>
+      <c r="AG95" s="6"/>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>6</v>
+      </c>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
+      <c r="X96" s="5"/>
+      <c r="Y96" s="6"/>
+      <c r="Z96" s="4"/>
+      <c r="AA96" s="5"/>
+      <c r="AB96" s="5"/>
+      <c r="AC96" s="5"/>
+      <c r="AD96" s="5"/>
+      <c r="AE96" s="5"/>
+      <c r="AF96" s="5"/>
+      <c r="AG96" s="6"/>
+    </row>
+    <row r="97" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>7</v>
+      </c>
+      <c r="B97" s="20"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="8"/>
+      <c r="W97" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X97" s="8"/>
+      <c r="Y97" s="9"/>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="8"/>
+      <c r="AB97" s="8"/>
+      <c r="AC97" s="8"/>
+      <c r="AD97" s="8"/>
+      <c r="AE97" s="8"/>
+      <c r="AF97" s="8"/>
+      <c r="AG97" s="9"/>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98" s="64"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="60"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="61"/>
+      <c r="J98" s="59"/>
+      <c r="K98" s="60"/>
+      <c r="L98" s="60"/>
+      <c r="M98" s="60"/>
+      <c r="N98" s="60"/>
+      <c r="O98" s="60"/>
+      <c r="P98" s="60"/>
+      <c r="Q98" s="61"/>
+      <c r="R98" s="59"/>
+      <c r="S98" s="60"/>
+      <c r="T98" s="60"/>
+      <c r="U98" s="60"/>
+      <c r="V98" s="60"/>
+      <c r="W98" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="X98" s="60"/>
+      <c r="Y98" s="61"/>
+      <c r="Z98" s="59"/>
+      <c r="AA98" s="60"/>
+      <c r="AB98" s="60"/>
+      <c r="AC98" s="60"/>
+      <c r="AD98" s="60"/>
+      <c r="AE98" s="60"/>
+      <c r="AF98" s="60"/>
+      <c r="AG98" s="65"/>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="63"/>
+      <c r="J99" s="62"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="63"/>
+      <c r="R99" s="62"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X99" s="5"/>
+      <c r="Y99" s="63"/>
+      <c r="Z99" s="62"/>
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="5"/>
+      <c r="AE99" s="5"/>
+      <c r="AF99" s="5"/>
+      <c r="AG99" s="6"/>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="63"/>
+      <c r="J100" s="62"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="63"/>
+      <c r="R100" s="62"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+      <c r="V100" s="5"/>
+      <c r="W100" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="X100" s="5"/>
+      <c r="Y100" s="63"/>
+      <c r="Z100" s="62"/>
+      <c r="AA100" s="5"/>
+      <c r="AB100" s="5"/>
+      <c r="AC100" s="5"/>
+      <c r="AD100" s="5"/>
+      <c r="AE100" s="5"/>
+      <c r="AF100" s="5"/>
+      <c r="AG100" s="6"/>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="63"/>
+      <c r="J101" s="62"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="63"/>
+      <c r="R101" s="62"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+      <c r="V101" s="5"/>
+      <c r="W101" s="5"/>
+      <c r="X101" s="5"/>
+      <c r="Y101" s="63"/>
+      <c r="Z101" s="62"/>
+      <c r="AA101" s="5"/>
+      <c r="AB101" s="5"/>
+      <c r="AC101" s="5"/>
+      <c r="AD101" s="5"/>
+      <c r="AE101" s="5"/>
+      <c r="AF101" s="5"/>
+      <c r="AG101" s="6"/>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="63"/>
+      <c r="J102" s="62"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="63"/>
+      <c r="R102" s="62"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
+      <c r="W102" s="5"/>
+      <c r="X102" s="5"/>
+      <c r="Y102" s="63"/>
+      <c r="Z102" s="62"/>
+      <c r="AA102" s="5"/>
+      <c r="AB102" s="5"/>
+      <c r="AC102" s="5"/>
+      <c r="AD102" s="5"/>
+      <c r="AE102" s="5"/>
+      <c r="AF102" s="5"/>
+      <c r="AG102" s="6"/>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="63"/>
+      <c r="J103" s="62"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="63"/>
+      <c r="R103" s="62"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+      <c r="V103" s="5"/>
+      <c r="W103" s="5"/>
+      <c r="X103" s="5"/>
+      <c r="Y103" s="63"/>
+      <c r="Z103" s="62"/>
+      <c r="AA103" s="5"/>
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
+      <c r="AD103" s="5"/>
+      <c r="AE103" s="5"/>
+      <c r="AF103" s="5"/>
+      <c r="AG103" s="6"/>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>6</v>
+      </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="63"/>
+      <c r="J104" s="62"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="63"/>
+      <c r="R104" s="62"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+      <c r="V104" s="5"/>
+      <c r="W104" s="5"/>
+      <c r="X104" s="5"/>
+      <c r="Y104" s="63"/>
+      <c r="Z104" s="62"/>
+      <c r="AA104" s="5"/>
+      <c r="AB104" s="5"/>
+      <c r="AC104" s="5"/>
+      <c r="AD104" s="5"/>
+      <c r="AE104" s="5"/>
+      <c r="AF104" s="5"/>
+      <c r="AG104" s="6"/>
+    </row>
+    <row r="105" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="66"/>
+      <c r="J105" s="67"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="66"/>
+      <c r="R105" s="67"/>
+      <c r="S105" s="8"/>
+      <c r="T105" s="8"/>
+      <c r="U105" s="8"/>
+      <c r="V105" s="8"/>
+      <c r="W105" s="8"/>
+      <c r="X105" s="8"/>
+      <c r="Y105" s="66"/>
+      <c r="Z105" s="67"/>
+      <c r="AA105" s="8"/>
+      <c r="AB105" s="8"/>
+      <c r="AC105" s="8"/>
+      <c r="AD105" s="8"/>
+      <c r="AE105" s="8"/>
+      <c r="AF105" s="8"/>
+      <c r="AG105" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
